--- a/data/trans_bre/P54_A_6_R-Urba-trans_bre.xlsx
+++ b/data/trans_bre/P54_A_6_R-Urba-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -604,32 +604,32 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>10,03</t>
+          <t>15,19</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>6,51</t>
+          <t>4,85</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>16,04</t>
+          <t>16,62</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>32,12%</t>
+          <t>56,33%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>8,76%</t>
+          <t>6,18%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>23,36%</t>
+          <t>24,43%</t>
         </is>
       </c>
     </row>
@@ -642,32 +642,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>2,74; 18,06</t>
+          <t>4,7; 24,98</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-1,2; 13,98</t>
+          <t>-3,93; 13,79</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>8,91; 23,44</t>
+          <t>7,02; 26,24</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>6,95; 67,0</t>
+          <t>14,14; 120,8</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-1,44; 20,65</t>
+          <t>-4,94; 18,71</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>12,16; 36,87</t>
+          <t>9,39; 43,05</t>
         </is>
       </c>
     </row>
@@ -684,32 +684,32 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,29</t>
+          <t>5,81</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>9,82</t>
+          <t>1,16</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>11,2</t>
+          <t>11,97</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,74%</t>
+          <t>17,36%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>13,77%</t>
+          <t>1,49%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>14,74%</t>
+          <t>16,59%</t>
         </is>
       </c>
     </row>
@@ -722,32 +722,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-9,03; 9,35</t>
+          <t>-5,71; 17,44</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>1,2; 21,63</t>
+          <t>-8,42; 14,13</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>3,91; 19,53</t>
+          <t>1,96; 24,1</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-20,96; 27,85</t>
+          <t>-13,84; 66,01</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>1,3; 34,97</t>
+          <t>-9,98; 19,78</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>4,8; 28,49</t>
+          <t>2,43; 37,8</t>
         </is>
       </c>
     </row>
@@ -764,32 +764,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>7,46</t>
+          <t>2,97</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>3,89</t>
+          <t>-3,28</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>8,66</t>
+          <t>-0,55</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>20,99%</t>
+          <t>6,94%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>4,88%</t>
+          <t>-3,6%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>12,17%</t>
+          <t>-0,67%</t>
         </is>
       </c>
     </row>
@@ -802,32 +802,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-16,97; 27,05</t>
+          <t>-35,11; 30,89</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-9,83; 20,34</t>
+          <t>-20,03; 12,91</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-7,34; 25,89</t>
+          <t>-21,81; 21,32</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-34,37; 122,32</t>
+          <t>-56,29; 149,3</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-10,89; 29,39</t>
+          <t>-21,13; 16,42</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-9,48; 42,99</t>
+          <t>-24,22; 32,06</t>
         </is>
       </c>
     </row>
@@ -844,32 +844,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>5,84</t>
+          <t>9,96</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>7,48</t>
+          <t>2,31</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>13,23</t>
+          <t>12,91</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>16,79%</t>
+          <t>31,77%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>10,15%</t>
+          <t>2,9%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>18,39%</t>
+          <t>18,16%</t>
         </is>
       </c>
     </row>
@@ -882,32 +882,39 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-0,3; 11,66</t>
+          <t>1,38; 17,9</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>2,11; 13,42</t>
+          <t>-4,01; 8,58</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>8,42; 18,14</t>
+          <t>5,92; 19,15</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-0,8; 37,04</t>
+          <t>3,79; 65,32</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>2,94; 19,67</t>
+          <t>-4,85; 11,53</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>11,26; 26,58</t>
+          <t>8,05; 29,07</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P54_A_6_R-Urba-trans_bre.xlsx
+++ b/data/trans_bre/P54_A_6_R-Urba-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -125,7 +128,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -138,6 +141,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +513,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -602,239 +611,163 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>15,19</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>4,85</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>16,62</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>56,33%</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>6,18%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>24,43%</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>15.18620072688782</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>5.390943497262201</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>17.23843592569588</v>
+      </c>
+      <c r="F4" s="6" t="n">
+        <v>0.5633174927703198</v>
+      </c>
+      <c r="G4" s="6" t="n">
+        <v>0.0685876602026512</v>
+      </c>
+      <c r="H4" s="6" t="n">
+        <v>0.2556084586522338</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>4,7; 24,98</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-3,93; 13,79</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>7,02; 26,24</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>14,14; 120,8</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>-4,94; 18,71</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>9,39; 43,05</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>4.696609051821569</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-3.118126266825487</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>7.493361179601007</v>
+      </c>
+      <c r="F5" s="6" t="n">
+        <v>0.1413505207187362</v>
+      </c>
+      <c r="G5" s="6" t="n">
+        <v>-0.03690236354758281</v>
+      </c>
+      <c r="H5" s="6" t="n">
+        <v>0.1025636999064008</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>24.97606684222773</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>14.07093913977269</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>26.87932431575869</v>
+      </c>
+      <c r="F6" s="6" t="n">
+        <v>1.207965062796509</v>
+      </c>
+      <c r="G6" s="6" t="n">
+        <v>0.1954710187362257</v>
+      </c>
+      <c r="H6" s="6" t="n">
+        <v>0.4397130948111407</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Intermedio</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>5,81</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>1,16</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>11,97</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>17,36%</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>1,49%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>16,59%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-5,71; 17,44</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-8,42; 14,13</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>1,96; 24,1</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>-13,84; 66,01</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>-9,98; 19,78</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>2,43; 37,8</t>
-        </is>
+      <c r="C7" s="5" t="n">
+        <v>5.813788209817966</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>1.852185175318677</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>12.64142269797474</v>
+      </c>
+      <c r="F7" s="6" t="n">
+        <v>0.1735692005982137</v>
+      </c>
+      <c r="G7" s="6" t="n">
+        <v>0.02398516994599537</v>
+      </c>
+      <c r="H7" s="6" t="n">
+        <v>0.175667465148215</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Rural</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>2,97</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>-3,28</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>-0,55</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>6,94%</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>-3,6%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>-0,67%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>-5.714007858863099</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>-8.104684898527044</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>2.099881256261129</v>
+      </c>
+      <c r="F8" s="6" t="n">
+        <v>-0.1383879952596072</v>
+      </c>
+      <c r="G8" s="6" t="n">
+        <v>-0.09768633299972763</v>
+      </c>
+      <c r="H8" s="6" t="n">
+        <v>0.02762983177073682</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-35,11; 30,89</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-20,03; 12,91</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-21,81; 21,32</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>-56,29; 149,3</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>-21,13; 16,42</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>-24,22; 32,06</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>17.43968548813915</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>15.6369024070191</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>24.98809019341393</v>
+      </c>
+      <c r="F9" s="6" t="n">
+        <v>0.6600992213644875</v>
+      </c>
+      <c r="G9" s="6" t="n">
+        <v>0.2331015620926408</v>
+      </c>
+      <c r="H9" s="6" t="n">
+        <v>0.403491074722133</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>Rural</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -842,77 +775,161 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>9,96</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>2,31</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>12,91</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>31,77%</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>2,9%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>18,16%</t>
-        </is>
+      <c r="C10" s="5" t="n">
+        <v>2.966132239548464</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>-1.208258020251163</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>1.466902299842476</v>
+      </c>
+      <c r="F10" s="6" t="n">
+        <v>0.06939838340970247</v>
+      </c>
+      <c r="G10" s="6" t="n">
+        <v>-0.01346845760800532</v>
+      </c>
+      <c r="H10" s="6" t="n">
+        <v>0.01830306585446292</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>1,38; 17,9</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>-4,01; 8,58</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>5,92; 19,15</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>3,79; 65,32</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>-4,85; 11,53</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>8,05; 29,07</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-35.11392767940446</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-17.12919509752946</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-19.01970922141259</v>
+      </c>
+      <c r="F11" s="6" t="n">
+        <v>-0.5628704412360822</v>
+      </c>
+      <c r="G11" s="6" t="n">
+        <v>-0.1779622518097333</v>
+      </c>
+      <c r="H11" s="6" t="n">
+        <v>-0.2173814136557849</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>30.8882924490843</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>17.27332381890762</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>23.77082327860984</v>
+      </c>
+      <c r="F12" s="6" t="n">
+        <v>1.492991931559763</v>
+      </c>
+      <c r="G12" s="6" t="n">
+        <v>0.2272204892519323</v>
+      </c>
+      <c r="H12" s="6" t="n">
+        <v>0.3678876055718281</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C13" s="5" t="n">
+        <v>9.961709977665251</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>3.297909245638264</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>13.63430806027226</v>
+      </c>
+      <c r="F13" s="6" t="n">
+        <v>0.3177338397152713</v>
+      </c>
+      <c r="G13" s="6" t="n">
+        <v>0.04165682366091947</v>
+      </c>
+      <c r="H13" s="6" t="n">
+        <v>0.1928395851049983</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>1.383208781201565</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>-2.649287482527849</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>6.32215452385017</v>
+      </c>
+      <c r="F14" s="6" t="n">
+        <v>0.03785040282495218</v>
+      </c>
+      <c r="G14" s="6" t="n">
+        <v>-0.03184201121930544</v>
+      </c>
+      <c r="H14" s="6" t="n">
+        <v>0.08512330753020129</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>17.89742381631445</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>9.892889313189981</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>20.07782892802442</v>
+      </c>
+      <c r="F15" s="6" t="n">
+        <v>0.6531874534626834</v>
+      </c>
+      <c r="G15" s="6" t="n">
+        <v>0.1318143142005743</v>
+      </c>
+      <c r="H15" s="6" t="n">
+        <v>0.3080615353870071</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
@@ -921,12 +938,12 @@
   </sheetData>
   <mergeCells count="7">
     <mergeCell ref="C1:E1"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="F1:H1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
